--- a/public/formatos/work_config_import.xlsx
+++ b/public/formatos/work_config_import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">numero_de_documento</t>
   </si>
@@ -37,82 +37,58 @@
     <t xml:space="preserve">meta</t>
   </si>
   <si>
+    <t xml:space="preserve">sindicato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_afp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero_de_cussp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha_de_afiliacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero_de_cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero_de_essalud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaza</t>
+  </si>
+  <si>
     <t xml:space="preserve">perfil</t>
   </si>
   <si>
-    <t xml:space="preserve">plaza</t>
-  </si>
-  <si>
     <t xml:space="preserve">escuela</t>
   </si>
   <si>
-    <t xml:space="preserve">observacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente</t>
-  </si>
-  <si>
     <t xml:space="preserve">ruc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Información para la importación de configuracion de los trabajadores masivamente </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">**Eliminar este cuadro al importar las categorías**</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Columna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | DNI del trabajador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | Identificador de la planilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | identificador del cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | identificador de la meta presupuestal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | Cargo en el que va a ejercer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerido | Cod o Numero de plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod. de escuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuente Presupuestal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod. del Registro único del Contribuyente</t>
+    <t xml:space="preserve">pap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha_de_ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha_de_cese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
   </si>
 </sst>
 </file>
@@ -122,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,22 +120,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,21 +171,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,66 +189,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCE181E"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -305,185 +197,231 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A596" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
+    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1011,31 +949,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
